--- a/src/main/resources/jxls_templates/container.xlsx
+++ b/src/main/resources/jxls_templates/container.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19815" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="容器档案表" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +19,51 @@
     <author>ASUS</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="G4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +103,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-否：0，是：1</t>
+jx:each(items="rows" var="row" lastCell="F3")
+</t>
         </r>
       </text>
     </comment>
@@ -68,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>容器档案数据</t>
   </si>
@@ -77,15 +122,6 @@
   </si>
   <si>
     <t>*容器名称</t>
-  </si>
-  <si>
-    <t>*容器类型</t>
-  </si>
-  <si>
-    <t>*部门</t>
-  </si>
-  <si>
-    <t>*所属仓库</t>
   </si>
   <si>
     <t>*存放地点</t>
@@ -157,10 +193,22 @@
     </r>
   </si>
   <si>
-    <t>*供应商</t>
+    <t>${row.ccontainercode}</t>
   </si>
   <si>
-    <t>*是否启用</t>
+    <t>${row.ccontainername}</t>
+  </si>
+  <si>
+    <t>${row.isinner}</t>
+  </si>
+  <si>
+    <t>${row.ilength}</t>
+  </si>
+  <si>
+    <t>${row.iwidth}</t>
+  </si>
+  <si>
+    <t>${row.iheight}</t>
   </si>
 </sst>
 </file>
@@ -173,7 +221,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -196,12 +244,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -709,48 +751,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,101 +805,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,22 +906,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,27 +1266,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="19.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:11">
+    <row r="1" ht="24.95" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,60 +1291,54 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
-    <row r="2" ht="24.95" customHeight="1" spans="1:12">
+    <row r="2" ht="24.95" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="5" spans="6:6">
-      <c r="F5" s="6"/>
+    <row r="5" spans="3:3">
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/jxls_templates/container.xlsx
+++ b/src/main/resources/jxls_templates/container.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7260"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -616,36 +616,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,7 +733,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,7 +763,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,28 +781,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,10 +811,10 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,27 +872,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,75 +1245,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="24.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3796296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6296296296296" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="6"/>
+    <row r="5" spans="2:4">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
